--- a/biology/Botanique/Carex_distique/Carex_distique.xlsx
+++ b/biology/Botanique/Carex_distique/Carex_distique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carex disticha, en français Carex distique ou Laîche distique, est une espèce de plante herbacée de la famille des Cypéracées.
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante vivace de 30 à 60 cm, glabre, à souche profonde, grosse, tortueuse, longuement rampante ; la tige est dressée, trigone, scabre ; les feuilles sont larges, de 2 à 5 mm, planes et scabres[3].
-Appareil reproducteur
-L'inflorescence est en épi oblong en fuseau, brun fauve, lobé, formé d'épillets nombreux, ovoïdes, les supérieurs et les inférieurs femelles, ceux du milieu mâles ou parfois androgynes. La bractée inférieure est à arête fine dépassant son épillet ; les écailles sont ovales-acuminées ; il y a deux stigmates ; les utricules sont roux, ovoïdes-oblongs (8 mm), plans-convexes, bordés d'une aile étroite denticulée, à long bec bidenté dépassant l'écaille[3].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante vivace de 30 à 60 cm, glabre, à souche profonde, grosse, tortueuse, longuement rampante ; la tige est dressée, trigone, scabre ; les feuilles sont larges, de 2 à 5 mm, planes et scabres.
 </t>
         </is>
       </c>
@@ -542,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat et répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">On la rencontre en Europe, au Maghreb, à l'Ouest de l'Asie[4], jusqu'à une altitude de 1 700 mètres[5].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence est en épi oblong en fuseau, brun fauve, lobé, formé d'épillets nombreux, ovoïdes, les supérieurs et les inférieurs femelles, ceux du milieu mâles ou parfois androgynes. La bractée inférieure est à arête fine dépassant son épillet ; les écailles sont ovales-acuminées ; il y a deux stigmates ; les utricules sont roux, ovoïdes-oblongs (8 mm), plans-convexes, bordés d'une aile étroite denticulée, à long bec bidenté dépassant l'écaille.
 </t>
         </is>
       </c>
@@ -573,12 +594,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Menaces et conservation</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est classée « en danger » (EN) dans le Limousin, en Midi-Pyrénées et Provence-Alpes-Côte d’Azur[6].
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la rencontre en Europe, au Maghreb, à l'Ouest de l'Asie, jusqu'à une altitude de 1 700 mètres.
 </t>
         </is>
       </c>
@@ -604,12 +627,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Menaces et conservation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est classée « en danger » (EN) dans le Limousin, en Midi-Pyrénées et Provence-Alpes-Côte d’Azur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Carex_distique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carex_distique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (25 novembre 2020)[7] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (25 novembre 2020) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Carex disticha subsp. grossheimii (V.I. Krecz.) T.V. Egorova
 sous-espèce Carex disticha subsp. lithophila Hämet-Ahti
 Carex disticha var. capitata Hampe ex Láng
